--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -564,6 +564,1318 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Billy Richmond III</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Trevon Brazile</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Meleek Thomas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jayden Epps</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Quincy Ballard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Three Dawg Nite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nick Pringle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bend Rimmers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Darius Acuff Jr.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Josh Hubbard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Shawn Jones Jr.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Isaiah Sealy</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>13:06 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -575,7 +1887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +1895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
   </cols>
@@ -605,6 +1917,97 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bend Rimmers</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Three Dawg Nite</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -443,7 +443,7 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
     <col width="5" customWidth="1" min="19" max="19"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -679,26 +679,26 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
         <v>3</v>
       </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -761,14 +761,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
         <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -843,11 +843,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1089,53 +1089,53 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>9</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1171,14 +1171,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1193,31 +1193,31 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
         <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1335,47 +1335,47 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1417,35 +1417,35 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1524,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1581,41 +1581,41 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1663,20 +1663,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:06 - 1st Half</t>
+          <t>11:29 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -679,14 +679,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
@@ -722,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -761,11 +761,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
@@ -774,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>12</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1117,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>1</v>
@@ -1171,11 +1171,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" t="n">
         <v>4</v>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
         <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:29 - 1st Half</t>
+          <t>1:02 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1812,67 +1812,149 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Sergej Macura</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>ARK@MSST</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>11:29 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>-3</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1924,7 +2006,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1937,7 +2019,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,47 +597,47 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="n">
         <v>7</v>
       </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -654,78 +654,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -741,12 +741,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -761,53 +761,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
         <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,73 +823,73 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -925,53 +925,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +982,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,42 +1007,42 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1074,68 +1074,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
         <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>10</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1171,17 +1171,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
@@ -1228,78 +1228,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1335,53 +1335,53 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>7</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,68 +1402,68 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,38 +1484,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1524,28 +1524,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1581,53 +1581,53 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16</v>
+      </c>
+      <c r="S14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1638,48 +1638,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1745,20 +1745,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1767,31 +1767,31 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,68 +1812,68 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1:02 - 1st Half</t>
+          <t>Sat, February 7th at 1:00 PM EST</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1884,78 +1884,1636 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Shawn Jones Jr.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Undrafted</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>12</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Isaiah Sealy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Eli Ellis</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Elijah Strong</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Sergej Macura</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>MSST</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>ARK@MSST</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1:02 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
         <v>4</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Halftime</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2006,10 +3564,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2019,7 +3577,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2028,27 +3586,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2058,16 +3616,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B7" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,67 +577,67 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Sat, February 7th at 2:00 PM EST</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -659,37 +659,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>Sat, February 7th at 2:00 PM EST</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -736,17 +736,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -761,53 +761,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -818,22 +818,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -843,53 +843,53 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -905,12 +905,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -925,41 +925,41 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" t="n">
         <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>14</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -968,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -987,73 +987,73 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1064,78 +1064,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>17</v>
       </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>17</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
         <v>8</v>
       </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
-      </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1171,53 +1171,53 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1253,47 +1253,47 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>17</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>3</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1354,34 +1354,34 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
         <v>3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,68 +1402,68 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>Sat, February 7th at 2:00 PM EST</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1479,17 +1479,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1499,53 +1499,53 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1638,22 +1638,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1682,34 +1682,34 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
         <v>3</v>
       </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,68 +1730,68 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>14</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1802,78 +1802,78 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,35 +1894,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Sat, February 7th at 2:00 PM EST</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1934,28 +1934,28 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1966,72 +1966,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2048,66 +2048,66 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Sat, February 7th at 2:00 PM EST</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2155,53 +2155,53 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
         <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,26 +2222,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
@@ -2250,13 +2250,13 @@
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2265,19 +2265,19 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>2</v>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2319,53 +2319,53 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2386,68 +2386,68 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
       <c r="R25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2550,62 +2550,62 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2647,53 +2647,53 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2729,47 +2729,47 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2796,35 +2796,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2893,53 +2893,53 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2960,35 +2960,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>Sat, February 7th at 2:00 PM EST</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3057,20 +3057,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3124,26 +3124,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3206,32 +3206,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,28 +3240,28 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3288,32 +3288,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
+          <t>3:45 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3322,22 +3322,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3370,56 +3370,56 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:02 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3428,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3452,67 +3452,887 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Camden Heide</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 2:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 2:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 2:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3:45 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 2:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Trent Burns</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>MIZ@SC</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Sat, February 7th at 1:00 PM EST</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0:02 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>-1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3564,7 +4384,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3599,11 +4419,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3612,14 +4432,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3629,10 +4449,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,17 +597,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -625,13 +625,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -1035,19 +1035,19 @@
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1228,78 +1228,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1315,73 +1315,73 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1402,68 +1402,68 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1474,39 +1474,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1521,31 +1521,31 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1561,70 +1561,70 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
         <v>3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>4</v>
@@ -1648,68 +1648,68 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1745,50 +1745,50 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>12</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>2</v>
@@ -1802,48 +1802,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1855,25 +1855,25 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1909,11 +1909,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,68 +1976,68 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>26</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
         <v>8</v>
       </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q19" t="n">
+        <v>9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>19</v>
+      </c>
+      <c r="S19" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2073,17 +2073,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>20</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2135,73 +2135,73 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>7</v>
-      </c>
       <c r="R21" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2212,78 +2212,78 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2319,53 +2319,53 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
         <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,68 +2386,68 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2483,50 +2483,50 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -2550,12 +2550,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2565,47 +2565,47 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
         <v>8</v>
       </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>13</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
         <v>3</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2647,47 +2647,47 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>18</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
         <v>7</v>
       </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>2</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2729,47 +2729,47 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>8</v>
+      </c>
+      <c r="I28" t="n">
         <v>6</v>
       </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2811,20 +2811,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
         <v>6</v>
       </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4</v>
-      </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2833,28 +2833,28 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>4</v>
@@ -2878,68 +2878,68 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
       </c>
       <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2960,44 +2960,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
         <v>4</v>
       </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
@@ -3009,19 +3009,19 @@
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3042,62 +3042,62 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3124,38 +3124,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3164,28 +3164,28 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
         <v>6</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3206,62 +3206,62 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3370,50 +3370,50 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3452,32 +3452,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3486,28 +3486,28 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3534,41 +3534,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3616,22 +3616,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3656,22 +3656,22 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3713,17 +3713,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3741,19 +3741,19 @@
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3795,23 +3795,23 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3862,12 +3862,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3877,17 +3877,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3902,22 +3902,22 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0:02 - 1st Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3984,22 +3984,22 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4026,22 +4026,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4108,26 +4108,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3:45 - 2nd Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4145,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4190,12 +4190,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 2:00 PM EST</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4233,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4272,67 +4272,395 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Trent Burns</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>MIZ@SC</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0:02 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>15:46 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>-1</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4384,7 +4712,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4410,7 +4738,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -4419,37 +4747,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -625,13 +625,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -900,78 +900,78 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -992,68 +992,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
         <v>6</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1069,73 +1069,73 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
       <c r="P8" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1175,43 +1175,43 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
+        <v>17</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1238,35 +1238,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1275,25 +1275,25 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1310,78 +1310,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1397,73 +1397,73 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
         <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1484,68 +1484,68 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
         <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1556,78 +1556,78 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>6</v>
       </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1643,73 +1643,73 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
         <v>6</v>
       </c>
-      <c r="J15" t="n">
-        <v>11</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1730,68 +1730,68 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
         <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="n">
         <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1812,68 +1812,68 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1894,68 +1894,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1966,48 +1966,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2019,25 +2019,25 @@
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2053,67 +2053,67 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I20" t="n">
+        <v>24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9</v>
+      </c>
+      <c r="R20" t="n">
+        <v>19</v>
+      </c>
+      <c r="S20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>3</v>
@@ -2130,78 +2130,78 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>3</v>
       </c>
-      <c r="R21" t="n">
-        <v>6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2222,56 +2222,56 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2299,46 +2299,46 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="Q23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,68 +2386,68 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q24" t="n">
         <v>7</v>
       </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="R24" t="n">
+        <v>15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
         <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>6</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="V25" t="n">
         <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2651,49 +2651,49 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2733,49 +2733,49 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
         <v>6</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>9</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2878,35 +2878,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2915,31 +2915,31 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2960,12 +2960,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2979,49 +2979,49 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3061,43 +3061,43 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>8</v>
+      </c>
+      <c r="I32" t="n">
         <v>6</v>
       </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3143,49 +3143,49 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
+        <v>7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>3</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>6</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1</v>
-      </c>
       <c r="S34" t="n">
         <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3288,35 +3288,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3325,25 +3325,25 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3389,43 +3389,43 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3452,29 +3452,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -3486,28 +3486,28 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="P37" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
       <c r="R37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3534,68 +3534,68 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3656,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3698,26 +3698,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3780,38 +3780,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3862,29 +3862,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -3896,22 +3896,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42" t="n">
         <v>21</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3944,41 +3944,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3987,25 +3987,25 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4069,19 +4069,19 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,32 +4108,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4190,12 +4190,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4272,22 +4272,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -4309,25 +4309,25 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,26 +4354,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4391,25 +4391,25 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,26 +4436,26 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4476,22 +4476,22 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4518,26 +4518,26 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>15:46 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4558,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4600,67 +4600,559 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Nic Codie</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>15:46 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>15:35 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Trent Burns</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>MIZ@SC</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>15:46 - 2nd Half</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="H57" t="n">
         <v>-1</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4712,7 +5204,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4721,24 +5213,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -4747,14 +5239,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4764,7 +5256,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4777,7 +5269,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,17 +597,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -679,17 +679,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="n">
         <v>4</v>
@@ -843,17 +843,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1089,53 +1089,53 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
-      </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1417,20 +1417,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J12" t="n">
         <v>9</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -1445,13 +1445,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1581,11 +1581,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1609,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,14 +1663,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
         <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>5</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1855,19 +1855,19 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2180,22 +2180,22 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>3</v>
@@ -2237,14 +2237,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -2265,25 +2265,25 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2496,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2511,19 +2511,19 @@
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>4</v>
@@ -2811,17 +2811,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
         <v>10</v>
       </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -2836,10 +2836,10 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
@@ -2854,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2878,68 +2878,68 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>9</v>
       </c>
-      <c r="I30" t="n">
-        <v>12</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>17</v>
-      </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2975,17 +2975,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>9</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
@@ -3042,68 +3042,68 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
         <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -3124,32 +3124,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -3158,34 +3158,34 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3206,33 +3206,33 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
         <v>7</v>
       </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
@@ -3240,34 +3240,34 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P34" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3288,35 +3288,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3328,28 +3328,28 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3370,68 +3370,68 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3452,29 +3452,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -3489,25 +3489,25 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3534,62 +3534,62 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3631,23 +3631,23 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3659,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3713,17 +3713,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3735,25 +3735,25 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3987,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4026,38 +4026,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4069,25 +4069,25 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4108,32 +4108,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4142,22 +4142,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4205,23 +4205,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4233,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4287,35 +4287,35 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4369,23 +4369,23 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4436,32 +4436,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4476,10 +4476,10 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4555,25 +4555,25 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4600,29 +4600,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -4637,31 +4637,31 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4682,22 +4682,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -4764,29 +4764,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4801,31 +4801,31 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4889,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4928,22 +4928,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15:35 - 1st Half</t>
+          <t>7:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4968,16 +4968,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5092,22 +5092,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15:46 - 2nd Half</t>
+          <t>6:55 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5117,42 +5117,124 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>7:47 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,7 +5286,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -5213,14 +5295,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5239,14 +5321,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5256,7 +5338,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5269,7 +5351,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -597,14 +597,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -625,13 +625,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -679,20 +679,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -1117,25 +1117,25 @@
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1417,17 +1417,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
         <v>5</v>
@@ -1445,13 +1445,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1663,20 +1663,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>25</v>
+      </c>
+      <c r="I15" t="n">
         <v>22</v>
       </c>
-      <c r="I15" t="n">
-        <v>20</v>
-      </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
@@ -1827,14 +1827,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1858,10 +1858,10 @@
         <v>14</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="n">
         <v>2</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2155,14 +2155,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -2198,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2237,11 +2237,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
         <v>12</v>
@@ -2262,16 +2262,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -2347,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -2811,23 +2811,23 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
         <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -2836,16 +2836,16 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2893,14 +2893,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2975,53 +2975,53 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P31" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
         <v>4</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3057,53 +3057,53 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q32" t="n">
         <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3221,50 +3221,50 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="P34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>4</v>
@@ -3370,22 +3370,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3395,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3495,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3534,22 +3534,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3559,25 +3559,25 @@
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3616,50 +3616,50 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3698,38 +3698,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3738,28 +3738,28 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3780,59 +3780,59 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>1</v>
@@ -3862,62 +3862,62 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>4</v>
       </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,35 +3944,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3987,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4026,29 +4026,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -4060,22 +4060,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4205,20 +4205,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -4227,19 +4227,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4272,22 +4272,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4354,22 +4354,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4451,17 +4451,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4476,22 +4476,22 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4518,32 +4518,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4555,25 +4555,25 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4779,14 +4779,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -4822,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6:55 - 1st Half</t>
+          <t>1:53 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>7:47 - 2nd Half</t>
+          <t>3:54 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -5295,24 +5295,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5321,14 +5321,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,20 +597,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -679,11 +679,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
         <v>13</v>
@@ -707,19 +707,19 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -1606,16 +1606,16 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2155,11 +2155,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5</v>
@@ -2183,19 +2183,19 @@
         <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>5</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2319,11 +2319,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2335,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="n">
         <v>3</v>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
         <v>8</v>
       </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>3</v>
-      </c>
-      <c r="P33" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>6</v>
-      </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
         <v>12</v>
       </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3</v>
-      </c>
-      <c r="O34" t="n">
-        <v>3</v>
-      </c>
-      <c r="P34" t="n">
-        <v>19</v>
-      </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
         <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>2</v>
@@ -3322,34 +3322,34 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3452,35 +3452,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3492,28 +3492,28 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3795,47 +3795,47 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3862,56 +3862,56 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3981,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4048,40 +4048,40 @@
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4130,10 +4130,10 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4145,31 +4145,31 @@
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4190,22 +4190,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -4215,43 +4215,43 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4287,20 +4287,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -4309,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4451,20 +4451,20 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4473,31 +4473,31 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
         <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4533,17 +4533,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4558,22 +4558,22 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4600,32 +4600,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -4640,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -4764,29 +4764,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -4801,31 +4801,31 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1:53 - 1st Half</t>
+          <t>17:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,17 +597,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -622,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -679,20 +679,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -910,29 +910,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -982,78 +982,78 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>40</v>
-      </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1064,78 +1064,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1205,19 +1205,19 @@
         <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1233,22 +1233,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,49 +1257,49 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1320,38 +1320,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1363,19 +1363,19 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1392,27 +1392,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1421,38 +1421,38 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>11</v>
-      </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
@@ -1460,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,56 +1484,56 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,68 +1566,68 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1667,49 +1667,49 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="n">
         <v>7</v>
       </c>
       <c r="R15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1720,45 +1720,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1767,31 +1767,31 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,68 +1812,68 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,62 +1894,62 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
         <v>1</v>
@@ -1971,17 +1971,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1995,19 +1995,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2016,28 +2016,28 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2048,17 +2048,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2095,31 +2095,31 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2155,41 +2155,41 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2198,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2241,49 +2241,49 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2294,45 +2294,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -2341,31 +2341,31 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2376,22 +2376,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2405,46 +2405,46 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
+        <v>8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>19</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
         <v>5</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4</v>
-      </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
@@ -2458,78 +2458,78 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,35 +2550,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2587,19 +2587,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2622,27 +2622,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -2669,31 +2669,31 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2704,78 +2704,78 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2786,78 +2786,78 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="P29" t="n">
-        <v>32</v>
-      </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2878,68 +2878,68 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q30" t="n">
         <v>7</v>
       </c>
-      <c r="J30" t="n">
+      <c r="R30" t="n">
+        <v>15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>4</v>
       </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2</v>
-      </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2950,63 +2950,63 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="P31" t="n">
-        <v>14</v>
-      </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>3</v>
@@ -3032,48 +3032,48 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3082,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
         <v>4</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="V33" t="n">
         <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>8</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3288,62 +3288,62 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3370,17 +3370,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3389,49 +3389,49 @@
         </is>
       </c>
       <c r="H36" t="n">
+        <v>19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="n">
         <v>7</v>
       </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
       <c r="R36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3471,43 +3471,43 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>18</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
         <v>7</v>
       </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>2</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3549,26 +3549,26 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3577,19 +3577,19 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
+        <v>17</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>12</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
         <v>6</v>
       </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
         <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3795,44 +3795,44 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
@@ -3862,47 +3862,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
         <v>14</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3963,49 +3963,49 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q43" t="n">
         <v>4</v>
       </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4026,35 +4026,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4066,22 +4066,22 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,12 +4108,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4127,34 +4127,34 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>3</v>
       </c>
       <c r="P45" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>6</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4272,47 +4272,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>18</v>
@@ -4324,16 +4324,16 @@
         <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4354,62 +4354,62 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4451,17 +4451,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>2</v>
@@ -4479,25 +4479,25 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -4518,50 +4518,50 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4600,35 +4600,35 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4637,31 +4637,31 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4682,38 +4682,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4783,16 +4783,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -4801,25 +4801,25 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4861,47 +4861,47 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>12:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4947,16 +4947,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -4968,22 +4968,22 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5044,28 +5044,28 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5092,53 +5092,53 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
@@ -5147,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5174,67 +5174,1133 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 3:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Chendall Weaver</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>12:52 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 3:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Nic Codie</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>12:52 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>12:52 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 3:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 3:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>12:52 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>Trent Burns</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>MIZ@SC</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="H71" t="n">
         <v>-1</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,11 +6348,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -5295,11 +6361,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5312,20 +6378,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -5334,14 +6400,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5351,10 +6417,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -5364,10 +6430,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,14 +597,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -622,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -679,17 +679,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" t="n">
         <v>17</v>
       </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -707,19 +707,19 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -910,12 +910,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -925,20 +925,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,17 +1007,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1484,62 +1484,62 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1566,22 +1566,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1597,25 +1597,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1761,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1909,14 +1909,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1937,19 +1937,19 @@
         <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
         <v>1</v>
@@ -1966,78 +1966,78 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2053,22 +2053,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2077,49 +2077,49 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I20" t="n">
+        <v>22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
         <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2140,68 +2140,68 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
+        <v>13</v>
+      </c>
+      <c r="I21" t="n">
         <v>6</v>
       </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2222,68 +2222,68 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2323,46 +2323,46 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
@@ -2376,45 +2376,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2423,31 +2423,31 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2458,78 +2458,78 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2545,40 +2545,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2590,28 +2590,28 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R26" t="n">
+        <v>19</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,17 +2704,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2729,53 +2729,53 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" t="n">
         <v>6</v>
       </c>
-      <c r="K28" t="n">
-        <v>3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2786,17 +2786,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2811,23 +2811,23 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2900,46 +2900,46 @@
         <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>7</v>
-      </c>
       <c r="R30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
         <v>4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2960,68 +2960,68 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
       </c>
       <c r="P31" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3057,20 +3057,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>2</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,17 +3124,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,17 +3143,17 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>5</v>
       </c>
-      <c r="K33" t="n">
-        <v>3</v>
-      </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
@@ -3161,31 +3161,31 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R33" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3201,73 +3201,73 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>4</v>
       </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3283,12 +3283,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3303,53 +3303,53 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3370,17 +3370,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3389,49 +3389,49 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I36" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
         <v>7</v>
       </c>
-      <c r="R36" t="n">
-        <v>13</v>
-      </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3471,46 +3471,46 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>2</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,35 +3534,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3571,25 +3571,25 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="n">
         <v>7</v>
       </c>
-      <c r="K39" t="n">
-        <v>3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>4</v>
-      </c>
-      <c r="P39" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
       <c r="R39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3713,23 +3713,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3738,25 +3738,25 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
         <v>26</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -3780,68 +3780,68 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
+        <v>18</v>
+      </c>
+      <c r="I41" t="n">
         <v>12</v>
       </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3881,49 +3881,49 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J42" t="n">
         <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -3944,35 +3944,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -3984,28 +3984,28 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P43" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4041,53 +4041,53 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
+        <v>13</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
         <v>8</v>
       </c>
-      <c r="I44" t="n">
-        <v>6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2</v>
-      </c>
-      <c r="P44" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4127,13 +4127,13 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
         <v>2</v>
@@ -4142,34 +4142,34 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="n">
         <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4291,13 +4291,13 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -4306,34 +4306,34 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4369,14 +4369,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -4388,34 +4388,34 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4451,53 +4451,53 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" t="n">
         <v>6</v>
       </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4518,62 +4518,62 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
         <v>6</v>
       </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>14</v>
-      </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4619,13 +4619,13 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -4637,31 +4637,31 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
         <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
         <v>9</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4682,38 +4682,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4722,28 +4722,28 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,43 +4783,43 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4846,38 +4846,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4886,28 +4886,28 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -4928,62 +4928,62 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>6</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5010,56 +5010,56 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
         <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="n">
         <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5111,49 +5111,49 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5174,68 +5174,68 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5271,11 +5271,11 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -5284,7 +5284,7 @@
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -5338,35 +5338,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -5381,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5439,43 +5439,43 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5502,32 +5502,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -5545,13 +5545,13 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5584,32 +5584,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5624,16 +5624,16 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5666,26 +5666,26 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5748,26 +5748,26 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5776,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -5791,19 +5791,19 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,32 +5830,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5912,26 +5912,26 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 3:30 PM EST</t>
+          <t>7:02 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5949,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5994,29 +5994,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -6031,19 +6031,19 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>3</v>
       </c>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6113,13 +6113,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6158,26 +6158,26 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12:52 - 2nd Half</t>
+          <t>15:33 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -6198,22 +6198,22 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6240,67 +6240,477 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>15:33 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>7:02 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Trent Burns</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>MIZ@SC</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="H76" t="n">
         <v>-1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" t="n">
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6352,7 +6762,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -6387,27 +6797,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6417,7 +6827,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -6430,7 +6840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
@@ -597,17 +597,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
         <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
         <v>9</v>
@@ -679,14 +679,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
         <v>19</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n">
         <v>8</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -741,67 +741,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -828,17 +828,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -847,43 +847,43 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -925,18 +925,18 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
@@ -953,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -968,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -992,32 +992,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1146,51 +1146,51 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1199,25 +1199,25 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1238,17 +1238,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,49 +1257,49 @@
         </is>
       </c>
       <c r="H10" t="n">
+        <v>29</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>13</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7</v>
-      </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1315,67 +1315,67 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1397,22 +1397,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1421,49 +1421,49 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1484,62 +1484,62 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1566,62 +1566,62 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1638,27 +1638,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1667,38 +1667,38 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>11</v>
-      </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
@@ -1706,10 +1706,10 @@
         <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1720,72 +1720,72 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1807,22 +1807,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1831,49 +1831,49 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
+        <v>11</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
         <v>5</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1889,43 +1889,43 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -1952,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1971,34 +1971,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2019,19 +2019,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2058,38 +2058,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="I20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2098,28 +2098,28 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -2174,22 +2174,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2237,53 +2237,53 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P22" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,68 +2304,68 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>22</v>
-      </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2426,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2463,17 +2463,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2487,19 +2487,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2508,28 +2508,28 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2540,17 +2540,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2569,16 +2569,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2587,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2622,39 +2622,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -2663,25 +2663,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,68 +2714,68 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2796,68 +2796,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2868,17 +2868,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2897,49 +2897,49 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2950,66 +2950,66 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3042,35 +3042,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3082,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -3114,78 +3114,78 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Q33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>5</v>
@@ -3261,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,48 +3278,48 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3328,28 +3328,28 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3370,68 +3370,68 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Q36" t="n">
         <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,38 +3452,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3492,28 +3492,28 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3524,78 +3524,78 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3606,27 +3606,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -3653,31 +3653,31 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3688,45 +3688,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I40" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3735,31 +3735,31 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R41" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3862,68 +3862,68 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3934,78 +3934,78 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>14</v>
+      </c>
+      <c r="I43" t="n">
+        <v>14</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
         <v>13</v>
       </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>4</v>
       </c>
-      <c r="P43" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -4016,78 +4016,78 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -4098,66 +4098,66 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>7</v>
       </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4</v>
-      </c>
-      <c r="P45" t="n">
-        <v>14</v>
-      </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4209,22 +4209,22 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -4233,25 +4233,25 @@
         <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" t="n">
         <v>4</v>
       </c>
-      <c r="R46" t="n">
-        <v>10</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>4</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2</v>
-      </c>
-      <c r="V46" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4272,68 +4272,68 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4354,32 +4354,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -4391,31 +4391,31 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4436,29 +4436,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>3</v>
@@ -4473,25 +4473,25 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4518,35 +4518,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4558,19 +4558,19 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4600,68 +4600,68 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>21</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="n">
         <v>7</v>
       </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P51" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
       <c r="R51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>19</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="n">
         <v>7</v>
       </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4783,37 +4783,37 @@
         </is>
       </c>
       <c r="H53" t="n">
+        <v>18</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
         <v>6</v>
       </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2</v>
-      </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4822,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4865,49 +4865,49 @@
         </is>
       </c>
       <c r="H54" t="n">
+        <v>17</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>12</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3</v>
+      </c>
+      <c r="U54" t="n">
         <v>6</v>
       </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>3</v>
-      </c>
-      <c r="P54" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>9</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" t="n">
-        <v>5</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4943,47 +4943,47 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P55" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5025,53 +5025,53 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
+        <v>13</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q56" t="n">
         <v>4</v>
       </c>
-      <c r="I56" t="n">
-        <v>4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2</v>
-      </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5092,12 +5092,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5111,49 +5111,49 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
+        <v>7</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
         <v>4</v>
       </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2</v>
-      </c>
       <c r="P57" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -5174,35 +5174,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -5214,28 +5214,28 @@
         <v>1</v>
       </c>
       <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q58" t="n">
         <v>4</v>
       </c>
-      <c r="P58" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -5256,56 +5256,56 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5338,62 +5338,62 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P60" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5420,62 +5420,62 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
         <v>4</v>
       </c>
-      <c r="J61" t="n">
-        <v>3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2</v>
-      </c>
-      <c r="O61" t="n">
-        <v>3</v>
-      </c>
-      <c r="P61" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2</v>
-      </c>
-      <c r="R61" t="n">
-        <v>6</v>
-      </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5521,49 +5521,49 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -5584,35 +5584,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -5624,28 +5624,28 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,12 +5666,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5681,47 +5681,47 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5767,43 +5767,43 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,35 +5830,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5867,31 +5867,31 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P66" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>9</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
-      </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5927,41 +5927,41 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
         <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5994,35 +5994,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6031,31 +6031,31 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -6076,38 +6076,38 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -6116,22 +6116,22 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6173,17 +6173,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>3:59 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6201,19 +6201,19 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6240,62 +6240,62 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>End of 2nd Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>1</v>
       </c>
       <c r="P71" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
         <v>4</v>
       </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -6322,35 +6322,35 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -6362,22 +6362,22 @@
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6423,16 +6423,16 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -6444,22 +6444,22 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6505,13 +6505,13 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -6520,28 +6520,28 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,29 +6568,29 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>7:02 - 2nd Half</t>
+          <t>17:23 - 1st Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -6650,67 +6650,1379 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ALA@AUB</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>17:23 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3</v>
+      </c>
+      <c r="P80" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Nic Codie</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>3:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>3</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Charles Bediako</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ALA@AUB</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>17:23 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>3:59 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ALA@AUB</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>17:23 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>3</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>End of 2nd Half</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Trent Burns</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>MIZ@SC</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="H92" t="n">
         <v>-1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6762,10 +8074,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6775,62 +8087,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6843,7 +8155,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -761,17 +761,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -789,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -925,11 +925,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -992,50 +992,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -1044,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1111,31 +1111,31 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
@@ -1581,47 +1581,47 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
         <v>9</v>
       </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6</v>
-      </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1894,68 +1894,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1976,29 +1976,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2007,31 +2007,31 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
+        <v>7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
         <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2073,14 +2073,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2095,25 +2095,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
         <v>4</v>
       </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3206,35 +3206,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3264,10 +3264,10 @@
         <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3385,41 +3385,41 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
         <v>6</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>2</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
@@ -3959,11 +3959,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I43" t="n">
         <v>14</v>
@@ -3987,19 +3987,19 @@
         <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>4</v>
@@ -4041,47 +4041,47 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q44" t="n">
         <v>4</v>
       </c>
-      <c r="L44" t="n">
-        <v>3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
       <c r="R44" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
         <v>5</v>
@@ -4123,17 +4123,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4148,16 +4148,16 @@
         <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4272,35 +4272,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4309,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,35 +4354,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>2</v>
@@ -4436,35 +4436,35 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4473,31 +4473,31 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4561,19 +4561,19 @@
         <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -5830,68 +5830,68 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5912,33 +5912,33 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
         <v>5</v>
       </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3</v>
-      </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
@@ -5946,34 +5946,34 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P67" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>3</v>
@@ -6028,34 +6028,34 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6091,53 +6091,53 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3</v>
+      </c>
+      <c r="U69" t="n">
         <v>10</v>
       </c>
-      <c r="Q69" t="n">
-        <v>2</v>
-      </c>
-      <c r="R69" t="n">
-        <v>4</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>2</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0</v>
-      </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -6158,22 +6158,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -6183,13 +6183,13 @@
         <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -6201,19 +6201,19 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q70" t="n">
         <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6240,56 +6240,56 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6344,16 +6344,16 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -6362,16 +6362,16 @@
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
         <v>20</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6423,16 +6423,16 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -6441,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6508,40 +6508,40 @@
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6593,43 +6593,43 @@
         <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6672,10 +6672,10 @@
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -6687,31 +6687,31 @@
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P76" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6732,56 +6732,56 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -6814,12 +6814,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6829,23 +6829,23 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H78" t="n">
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -6857,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7239,14 +7239,14 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -7264,16 +7264,16 @@
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -7282,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7388,22 +7388,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -7428,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -7470,22 +7470,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3:59 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -7510,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -7552,22 +7552,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:41 - 1st Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -7592,22 +7592,22 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,22 +7634,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17:23 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -7674,22 +7674,22 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7716,29 +7716,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -7753,19 +7753,19 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>3</v>
       </c>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7774,10 +7774,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -8023,6 +8023,88 @@
         <v>0</v>
       </c>
       <c r="V92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Blake Muschalek</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ALA@AUB</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>9:41 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8074,7 +8156,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -8083,11 +8165,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -8096,11 +8178,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -8109,27 +8191,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -8152,7 +8234,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,11 +761,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>9</v>
@@ -774,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -789,25 +789,25 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -925,47 +925,47 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
       </c>
       <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
       <c r="S6" t="n">
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -1335,41 +1335,41 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
         <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" t="n">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1609,19 +1609,19 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1894,68 +1894,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>9</v>
       </c>
       <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
         <v>10</v>
       </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>4</v>
       </c>
-      <c r="R18" t="n">
-        <v>11</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1976,68 +1976,68 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q19" t="n">
         <v>4</v>
       </c>
-      <c r="I19" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
       <c r="R19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="n">
         <v>2</v>
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2401,23 +2401,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2632,62 +2632,62 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>1</v>
@@ -2714,62 +2714,62 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>1</v>
@@ -2796,26 +2796,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
         <v>6</v>
@@ -2824,40 +2824,40 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2897,46 +2897,46 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
         <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>2</v>
@@ -2960,68 +2960,68 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -3139,14 +3139,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3167,19 +3167,19 @@
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
         <v>8</v>
       </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>3</v>
-      </c>
-      <c r="P35" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>9</v>
-      </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3370,32 +3370,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>8</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
       <c r="R36" t="n">
+        <v>9</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
         <v>6</v>
       </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3631,20 +3631,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3656,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q39" t="n">
         <v>2</v>
@@ -3674,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3969,7 +3969,7 @@
         <v>14</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3984,16 +3984,16 @@
         <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4041,53 +4041,53 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
+        <v>11</v>
+      </c>
+      <c r="I44" t="n">
+        <v>18</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>18</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
+      </c>
+      <c r="U44" t="n">
         <v>7</v>
       </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>14</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2</v>
-      </c>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
       <c r="V44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -4190,68 +4190,68 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>12</v>
       </c>
       <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
         <v>9</v>
       </c>
-      <c r="J46" t="n">
-        <v>5</v>
-      </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="n">
         <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4272,68 +4272,68 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
+        <v>12</v>
+      </c>
+      <c r="I47" t="n">
         <v>9</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
         <v>4</v>
       </c>
-      <c r="J47" t="n">
-        <v>6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4533,14 +4533,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4576,10 +4576,10 @@
         <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -5502,35 +5502,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>7</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -5539,31 +5539,31 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
         <v>4</v>
       </c>
-      <c r="R62" t="n">
-        <v>9</v>
-      </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
         <v>2</v>
       </c>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5606,13 +5606,13 @@
         <v>7</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
         <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -5621,31 +5621,31 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
         <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -5666,32 +5666,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
         <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
         <v>2</v>
@@ -5703,31 +5703,31 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5748,32 +5748,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -5785,25 +5785,25 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>1</v>
       </c>
       <c r="P65" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,35 +5830,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>2</v>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
@@ -5876,16 +5876,16 @@
         <v>14</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -6158,53 +6158,53 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
         <v>4</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6240,22 +6240,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -6277,25 +6277,25 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="n">
         <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -6322,12 +6322,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6341,13 +6341,13 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -6359,16 +6359,16 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
         <v>4</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -6404,38 +6404,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -6486,17 +6486,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6505,37 +6505,37 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -6568,38 +6568,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>1</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6672,40 +6672,40 @@
         <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6732,22 +6732,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -6757,31 +6757,31 @@
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -6814,32 +6814,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -6848,28 +6848,28 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P78" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6915,22 +6915,22 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -6939,25 +6939,25 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6993,14 +6993,14 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
         <v>2</v>
@@ -7015,19 +7015,19 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
         <v>3</v>
       </c>
       <c r="P80" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -7036,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7103,19 +7103,19 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -7142,22 +7142,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -7179,13 +7179,13 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7224,50 +7224,50 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -7306,17 +7306,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7325,13 +7325,13 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7388,22 +7388,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -7428,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -7470,22 +7470,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -7510,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -7552,22 +7552,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -7592,22 +7592,22 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,22 +7634,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -7677,19 +7677,19 @@
         <v>3</v>
       </c>
       <c r="P88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7716,29 +7716,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -7753,19 +7753,19 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>3</v>
       </c>
       <c r="P89" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7774,10 +7774,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>9:41 - 1st Half</t>
+          <t>2:48 - 1st Half</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -8195,7 +8195,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,53 +761,53 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
         <v>11</v>
       </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7</v>
-      </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -1007,42 +1007,42 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -1363,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1484,26 +1484,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
         <v>17</v>
@@ -1512,40 +1512,40 @@
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
         <v>7</v>
       </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>8</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1566,62 +1566,62 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1894,68 +1894,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
         <v>5</v>
       </c>
-      <c r="R18" t="n">
-        <v>10</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>7</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1976,68 +1976,68 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2073,20 +2073,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -2095,25 +2095,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -2341,25 +2341,25 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2401,11 +2401,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2632,35 +2632,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -2672,28 +2672,28 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2714,62 +2714,62 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
         <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
         <v>1</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>8</v>
+      </c>
+      <c r="R34" t="n">
+        <v>12</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="n">
         <v>5</v>
       </c>
-      <c r="K34" t="n">
-        <v>3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2</v>
-      </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3303,20 +3303,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3331,25 +3331,25 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>9</v>
+      </c>
+      <c r="S35" t="n">
         <v>4</v>
       </c>
-      <c r="R35" t="n">
-        <v>8</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3534,68 +3534,68 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5</v>
+      </c>
+      <c r="P38" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="L38" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>4</v>
       </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
         <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="n">
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
         <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3944,12 +3944,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3959,53 +3959,53 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
+        <v>25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>27</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>20</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4</v>
+      </c>
+      <c r="U43" t="n">
         <v>12</v>
       </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2</v>
-      </c>
-      <c r="O43" t="n">
-        <v>3</v>
-      </c>
-      <c r="P43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>10</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1</v>
-      </c>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
       <c r="V43" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4041,53 +4041,53 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P44" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
         <v>4</v>
       </c>
-      <c r="U44" t="n">
-        <v>7</v>
-      </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -4123,41 +4123,41 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
         <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4190,36 +4190,36 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
         <v>4</v>
       </c>
-      <c r="J46" t="n">
-        <v>9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
@@ -4233,25 +4233,25 @@
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4272,68 +4272,68 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
         <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Q47" t="n">
         <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,68 +4354,68 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
+        <v>12</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" t="n">
         <v>4</v>
       </c>
-      <c r="I48" t="n">
+      <c r="V48" t="n">
         <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4436,68 +4436,68 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
       <c r="P49" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
         <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4518,33 +4518,33 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
         <v>4</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
@@ -4558,25 +4558,25 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>2</v>
@@ -5010,68 +5010,68 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>13</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5111,49 +5111,49 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q57" t="n">
         <v>4</v>
       </c>
-      <c r="P57" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5193,49 +5193,49 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P58" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
         <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>10</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
-      <c r="T58" t="n">
-        <v>4</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
-      <c r="V58" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -5256,50 +5256,50 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q59" t="n">
         <v>3</v>
@@ -5308,16 +5308,16 @@
         <v>6</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,16 +5357,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -5378,28 +5378,28 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="n">
         <v>4</v>
       </c>
-      <c r="P60" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2</v>
-      </c>
       <c r="R60" t="n">
+        <v>10</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
         <v>4</v>
       </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2</v>
-      </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5439,43 +5439,43 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I61" t="n">
         <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
         <v>3</v>
       </c>
       <c r="P61" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5502,35 +5502,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H62" t="n">
+        <v>8</v>
+      </c>
+      <c r="I62" t="n">
         <v>7</v>
       </c>
-      <c r="I62" t="n">
-        <v>8</v>
-      </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -5539,25 +5539,25 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q62" t="n">
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -5584,56 +5584,56 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5642,10 +5642,10 @@
         <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5685,37 +5685,37 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
         <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5724,10 +5724,10 @@
         <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5748,50 +5748,50 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
         <v>7</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q65" t="n">
         <v>2</v>
@@ -5800,10 +5800,10 @@
         <v>4</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,62 +5830,62 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,12 +5912,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5931,13 +5931,13 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -5949,31 +5949,31 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67" t="n">
         <v>3</v>
       </c>
       <c r="P67" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R67" t="n">
         <v>9</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6013,49 +6013,49 @@
         </is>
       </c>
       <c r="H68" t="n">
+        <v>7</v>
+      </c>
+      <c r="I68" t="n">
         <v>5</v>
       </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,49 +6095,49 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I69" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6158,35 +6158,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
         <v>5</v>
       </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6198,28 +6198,28 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P70" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q70" t="n">
         <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6240,53 +6240,53 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
         <v>2</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6341,49 +6341,49 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3</v>
+      </c>
+      <c r="U72" t="n">
         <v>10</v>
       </c>
-      <c r="Q72" t="n">
-        <v>2</v>
-      </c>
-      <c r="R72" t="n">
-        <v>4</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6419,14 +6419,14 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6444,22 +6444,22 @@
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -6486,35 +6486,35 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -6526,16 +6526,16 @@
         <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -6544,10 +6544,10 @@
         <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -6568,53 +6568,53 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
         <v>1</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,19 +6669,19 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -6693,19 +6693,19 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6732,35 +6732,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
@@ -6772,28 +6772,28 @@
         <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6814,17 +6814,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6833,43 +6833,43 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>4</v>
       </c>
-      <c r="J78" t="n">
-        <v>3</v>
-      </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6918,19 +6918,19 @@
         <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -6939,25 +6939,25 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6978,32 +6978,32 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
         <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>2</v>
@@ -7021,25 +7021,25 @@
         <v>3</v>
       </c>
       <c r="P80" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7060,62 +7060,62 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P81" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
@@ -7142,29 +7142,29 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
@@ -7176,22 +7176,22 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -7267,19 +7267,19 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -7306,12 +7306,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -7346,10 +7346,10 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -7470,22 +7470,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15:47 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -7510,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -7552,22 +7552,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:50 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -7592,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -7634,22 +7634,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -7674,22 +7674,22 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -8195,7 +8195,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -8204,11 +8204,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -8217,27 +8217,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -664,68 +664,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="n">
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
         <v>14</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -746,68 +746,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
         <v>4</v>
       </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -823,67 +823,67 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -910,35 +910,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>17</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,53 +1007,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1074,68 +1074,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1190,28 +1190,28 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1228,27 +1228,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1281,25 +1281,25 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1310,48 +1310,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1402,17 +1402,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1421,49 +1421,49 @@
         </is>
       </c>
       <c r="H12" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
         <v>6</v>
       </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>13</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7</v>
-      </c>
       <c r="U12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1479,40 +1479,40 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1524,28 +1524,28 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
         <v>7</v>
       </c>
-      <c r="R14" t="n">
-        <v>17</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>8</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1648,68 +1648,68 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1749,43 +1749,43 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1802,27 +1802,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1831,38 +1831,38 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>5</v>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>11</v>
-      </c>
       <c r="S17" t="n">
         <v>1</v>
       </c>
@@ -1870,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1884,78 +1884,78 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1976,35 +1976,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>29</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" t="n">
         <v>11</v>
       </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -2016,28 +2016,28 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
         <v>5</v>
       </c>
-      <c r="T19" t="n">
-        <v>11</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2073,53 +2073,53 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
+        <v>20</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
         <v>6</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2135,73 +2135,73 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R21" t="n">
+        <v>14</v>
+      </c>
+      <c r="S21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2217,73 +2217,73 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>6</v>
       </c>
-      <c r="I22" t="n">
-        <v>11</v>
-      </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2304,68 +2304,68 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2386,38 +2386,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2426,28 +2426,28 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2458,51 +2458,51 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -2511,25 +2511,25 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="Q25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,56 +2550,56 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2627,73 +2627,73 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
         <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2709,43 +2709,43 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2754,28 +2754,28 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" t="n">
         <v>6</v>
       </c>
-      <c r="I29" t="n">
-        <v>7</v>
-      </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2878,44 +2878,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
         <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>2</v>
@@ -2927,19 +2927,19 @@
         <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2960,35 +2960,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -3000,19 +3000,19 @@
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3032,27 +3032,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3061,49 +3061,49 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
         <v>9</v>
       </c>
-      <c r="R32" t="n">
-        <v>19</v>
-      </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3114,75 +3114,75 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>2</v>
@@ -3196,78 +3196,78 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
         <v>18</v>
       </c>
-      <c r="J34" t="n">
-        <v>3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>28</v>
-      </c>
       <c r="Q34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3283,40 +3283,40 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I35" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3325,31 +3325,31 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="n">
+        <v>9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>19</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>6</v>
-      </c>
       <c r="U35" t="n">
         <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -3365,73 +3365,73 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q36" t="n">
         <v>8</v>
       </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
-      <c r="P36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
       <c r="R36" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3447,73 +3447,73 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
         <v>7</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3524,78 +3524,78 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>16</v>
       </c>
       <c r="I38" t="n">
+        <v>17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
         <v>10</v>
       </c>
-      <c r="J38" t="n">
-        <v>8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>5</v>
-      </c>
-      <c r="P38" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>4</v>
       </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
         <v>4</v>
-      </c>
-      <c r="V38" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3606,17 +3606,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
         <v>9</v>
       </c>
-      <c r="K39" t="n">
-        <v>4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>4</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3688,48 +3688,48 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3738,28 +3738,28 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3780,68 +3780,68 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3857,73 +3857,73 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
+        <v>16</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5</v>
+      </c>
+      <c r="P42" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
         <v>6</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3944,68 +3944,68 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I43" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>4</v>
       </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3</v>
-      </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4026,50 +4026,50 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
         <v>12</v>
       </c>
-      <c r="I44" t="n">
-        <v>14</v>
-      </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -4084,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
         <v>4</v>
-      </c>
-      <c r="V44" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -4098,78 +4098,78 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="n">
+        <v>16</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q45" t="n">
         <v>7</v>
       </c>
-      <c r="I45" t="n">
-        <v>6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
         <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4205,53 +4205,53 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Q46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4272,35 +4272,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4309,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4349,73 +4349,73 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
         <v>9</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>5</v>
       </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P48" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R48" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -4431,73 +4431,73 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>12</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5</v>
+      </c>
+      <c r="P49" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>10</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
         <v>4</v>
       </c>
-      <c r="I49" t="n">
+      <c r="V49" t="n">
         <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>4</v>
-      </c>
-      <c r="P49" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2</v>
-      </c>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
-      <c r="V49" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -4513,70 +4513,70 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
+        <v>8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
         <v>4</v>
       </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
       <c r="P50" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>2</v>
@@ -4590,45 +4590,45 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4640,28 +4640,28 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4682,38 +4682,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
+        <v>21</v>
+      </c>
+      <c r="I52" t="n">
         <v>19</v>
       </c>
-      <c r="I52" t="n">
-        <v>15</v>
-      </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4722,28 +4722,28 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q52" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" t="n">
+        <v>12</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="n">
         <v>7</v>
       </c>
-      <c r="R52" t="n">
-        <v>13</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>3</v>
-      </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -4807,25 +4807,25 @@
         <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
         <v>7</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4846,68 +4846,68 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4928,35 +4928,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -4965,31 +4965,31 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>4</v>
       </c>
       <c r="P55" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5010,35 +5010,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5047,31 +5047,31 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5111,19 +5111,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5132,25 +5132,25 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P57" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R57" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5193,49 +5193,49 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J58" t="n">
+        <v>8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q58" t="n">
         <v>7</v>
       </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" t="n">
-        <v>4</v>
-      </c>
-      <c r="P58" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5256,68 +5256,68 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I59" t="n">
         <v>12</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -5338,12 +5338,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5357,49 +5357,49 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P60" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q60" t="n">
         <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5439,43 +5439,43 @@
         </is>
       </c>
       <c r="H61" t="n">
+        <v>13</v>
+      </c>
+      <c r="I61" t="n">
         <v>8</v>
       </c>
-      <c r="I61" t="n">
-        <v>6</v>
-      </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P61" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q61" t="n">
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5517,20 +5517,20 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -5539,31 +5539,31 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
         <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -5584,68 +5584,68 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
+        <v>13</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
         <v>8</v>
       </c>
-      <c r="I63" t="n">
-        <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" t="n">
-        <v>2</v>
-      </c>
-      <c r="P63" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3</v>
-      </c>
-      <c r="R63" t="n">
-        <v>6</v>
-      </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -5666,68 +5666,68 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="n">
         <v>5</v>
       </c>
-      <c r="J64" t="n">
-        <v>3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="n">
-        <v>4</v>
-      </c>
       <c r="P64" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T64" t="n">
         <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5767,49 +5767,49 @@
         </is>
       </c>
       <c r="H65" t="n">
+        <v>11</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
         <v>7</v>
       </c>
-      <c r="I65" t="n">
-        <v>6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3</v>
-      </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P65" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
         <v>4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2</v>
-      </c>
-      <c r="T65" t="n">
-        <v>4</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5830,68 +5830,68 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>4</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -5912,56 +5912,56 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I67" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5970,10 +5970,10 @@
         <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>2</v>
@@ -6028,34 +6028,34 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P68" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6076,29 +6076,29 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
         <v>2</v>
@@ -6107,31 +6107,31 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P69" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6158,17 +6158,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6177,19 +6177,19 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -6198,28 +6198,28 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P70" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Q70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
       </c>
       <c r="T70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6259,43 +6259,43 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
         <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P71" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6341,13 +6341,13 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -6359,31 +6359,31 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V72" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -6404,35 +6404,35 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
+        <v>7</v>
+      </c>
+      <c r="I73" t="n">
         <v>5</v>
       </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -6441,31 +6441,31 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6501,53 +6501,53 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
         <v>4</v>
       </c>
-      <c r="I74" t="n">
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q74" t="n">
         <v>4</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P74" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1</v>
-      </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U74" t="n">
         <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6568,26 +6568,26 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -6596,10 +6596,10 @@
         <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
@@ -6611,13 +6611,13 @@
         <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,49 +6669,49 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P76" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -6763,10 +6763,10 @@
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
@@ -6775,19 +6775,19 @@
         <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
       </c>
       <c r="R77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -6814,17 +6814,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6833,13 +6833,13 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -6851,31 +6851,31 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -6896,35 +6896,35 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -6933,19 +6933,19 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
@@ -6978,68 +6978,68 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
         <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
         <v>21</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -7060,56 +7060,56 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>7:56 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -7142,17 +7142,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7161,22 +7161,22 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -7185,25 +7185,25 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7243,13 +7243,13 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -7261,19 +7261,19 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -7306,17 +7306,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7325,16 +7325,16 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -7343,25 +7343,25 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -7428,22 +7428,22 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -7470,29 +7470,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 7th at 6:00 PM EST</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
@@ -7510,16 +7510,16 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7552,32 +7552,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6:50 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -7586,28 +7586,28 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P87" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,17 +7634,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7653,13 +7653,13 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -7668,22 +7668,22 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -7716,12 +7716,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7744,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -7756,22 +7756,22 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
@@ -7798,32 +7798,32 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:49 - 2nd Half</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -7835,13 +7835,13 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -7880,12 +7880,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7899,19 +7899,19 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -7920,22 +7920,22 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,17 +7962,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7996,22 +7996,22 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -8044,67 +8044,1051 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 6:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 6:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>OU@VAN</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0:49 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 6:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 6:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Sat, February 7th at 6:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>Blake Muschalek</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>AUB</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>ALA@AUB</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Halftime</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>7:56 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
         <v>-2</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1</v>
-      </c>
-      <c r="P93" t="n">
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
         <v>5</v>
       </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="n">
-        <v>3</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0</v>
-      </c>
-      <c r="V93" t="n">
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8156,10 +9140,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8169,7 +9153,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -8178,40 +9162,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -8237,7 +9221,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,14 +679,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
         <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -707,25 +707,25 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="n">
         <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -843,23 +843,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1335,14 +1335,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1363,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>12</v>
@@ -1527,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2073,41 +2073,41 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="n">
         <v>8</v>
       </c>
       <c r="R20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2116,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2140,68 +2140,68 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
         <v>5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>11</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2222,68 +2222,68 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="n">
         <v>6</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2729,17 +2729,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2754,22 +2754,22 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3370,38 +3370,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I36" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3410,28 +3410,28 @@
         <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
         <v>8</v>
       </c>
-      <c r="R36" t="n">
-        <v>12</v>
-      </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>5</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3452,62 +3452,62 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" t="n">
+        <v>20</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>8</v>
+      </c>
+      <c r="R37" t="n">
         <v>12</v>
       </c>
-      <c r="J37" t="n">
-        <v>6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>7</v>
-      </c>
       <c r="S37" t="n">
         <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U37" t="n">
         <v>2</v>
@@ -3549,17 +3549,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" t="n">
         <v>17</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -3574,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
@@ -3698,56 +3698,56 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>8</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3756,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3780,38 +3780,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3820,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3852,66 +3852,66 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>5</v>
       </c>
-      <c r="P42" t="n">
-        <v>24</v>
-      </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3920,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,49 +3963,49 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
         <v>4</v>
       </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>4</v>
       </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1</v>
-      </c>
-      <c r="U43" t="n">
-        <v>3</v>
-      </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4045,16 +4045,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
@@ -4063,20 +4063,20 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="R44" t="n">
-        <v>10</v>
-      </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
@@ -4084,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -4103,22 +4103,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4130,46 +4130,46 @@
         <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>7</v>
-      </c>
       <c r="R45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
         <v>4</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2</v>
-      </c>
-      <c r="V45" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4190,68 +4190,68 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>5</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4287,20 +4287,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4344,78 +4344,78 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q48" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4426,42 +4426,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4470,34 +4470,34 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4518,68 +4518,68 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
         <v>4</v>
       </c>
       <c r="P50" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>10</v>
+      </c>
+      <c r="R50" t="n">
         <v>23</v>
       </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -4600,68 +4600,68 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -4677,40 +4677,40 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I52" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -4719,31 +4719,31 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4759,73 +4759,73 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P53" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="n">
         <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4846,68 +4846,68 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I54" t="n">
+        <v>25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>9</v>
+      </c>
+      <c r="R54" t="n">
+        <v>16</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="n">
+        <v>8</v>
+      </c>
+      <c r="U54" t="n">
         <v>4</v>
       </c>
-      <c r="J54" t="n">
-        <v>10</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -4928,65 +4928,65 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
+        <v>12</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="n">
         <v>4</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4</v>
-      </c>
-      <c r="P55" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>2</v>
-      </c>
-      <c r="U55" t="n">
-        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>4</v>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="H56" t="n">
+        <v>11</v>
+      </c>
+      <c r="I56" t="n">
         <v>4</v>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -5047,31 +5047,31 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5092,68 +5092,68 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5</v>
+      </c>
+      <c r="P57" t="n">
         <v>16</v>
       </c>
-      <c r="J57" t="n">
-        <v>6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
         <v>4</v>
-      </c>
-      <c r="P57" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>7</v>
-      </c>
-      <c r="R57" t="n">
-        <v>10</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2</v>
-      </c>
-      <c r="T57" t="n">
-        <v>5</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5193,49 +5193,49 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,49 +5275,49 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
         <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q59" t="n">
+        <v>7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>10</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="n">
         <v>5</v>
       </c>
-      <c r="R59" t="n">
-        <v>7</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,49 +5357,49 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I60" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J60" t="n">
+        <v>8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q60" t="n">
         <v>7</v>
       </c>
-      <c r="K60" t="n">
-        <v>3</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>4</v>
-      </c>
-      <c r="P60" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
       <c r="R60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
         <v>3</v>
       </c>
       <c r="U60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5439,49 +5439,49 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -5502,68 +5502,68 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I62" t="n">
+        <v>14</v>
+      </c>
+      <c r="J62" t="n">
+        <v>7</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
         <v>12</v>
       </c>
-      <c r="J62" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -5584,32 +5584,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5621,31 +5621,31 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -5666,56 +5666,56 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q64" t="n">
         <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
         <v>2</v>
@@ -5724,10 +5724,10 @@
         <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5767,49 +5767,49 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q65" t="n">
         <v>4</v>
       </c>
-      <c r="P65" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1</v>
-      </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5830,17 +5830,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5849,49 +5849,49 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
         <v>6</v>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2</v>
-      </c>
-      <c r="P66" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>10</v>
-      </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -5912,68 +5912,68 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P67" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6013,49 +6013,49 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
         <v>6</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6091,47 +6091,47 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q69" t="n">
         <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6158,68 +6158,68 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
+        <v>9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
         <v>8</v>
       </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" t="n">
-        <v>4</v>
-      </c>
-      <c r="P70" t="n">
-        <v>23</v>
-      </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
         <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6240,35 +6240,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H71" t="n">
+        <v>9</v>
+      </c>
+      <c r="I71" t="n">
         <v>7</v>
       </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
       <c r="J71" t="n">
         <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6280,22 +6280,22 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P71" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6341,49 +6341,49 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
         <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R72" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6423,37 +6423,37 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I73" t="n">
         <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P73" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -6462,10 +6462,10 @@
         <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6486,35 +6486,35 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
+        <v>7</v>
+      </c>
+      <c r="I74" t="n">
         <v>6</v>
       </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -6523,19 +6523,19 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
         <v>4</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P74" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>4</v>
-      </c>
-      <c r="R74" t="n">
-        <v>7</v>
       </c>
       <c r="S74" t="n">
         <v>2</v>
@@ -6544,10 +6544,10 @@
         <v>4</v>
       </c>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6568,17 +6568,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J75" t="n">
         <v>2</v>
@@ -6599,37 +6599,37 @@
         <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,16 +6669,16 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -6687,28 +6687,28 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
         <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
         <v>2</v>
@@ -6732,17 +6732,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6751,49 +6751,49 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -6814,17 +6814,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6833,49 +6833,49 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6896,35 +6896,35 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>8</v>
+      </c>
+      <c r="J79" t="n">
         <v>5</v>
       </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -6936,28 +6936,28 @@
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P79" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Q79" t="n">
         <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6978,50 +6978,50 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -7033,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7060,68 +7060,68 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>7:56 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V81" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
@@ -7142,62 +7142,62 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
         <v>4</v>
       </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>10</v>
-      </c>
       <c r="Q82" t="n">
         <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7243,19 +7243,19 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -7267,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83" t="n">
         <v>4</v>
@@ -7306,17 +7306,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7325,19 +7325,19 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7349,13 +7349,13 @@
         <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
@@ -7364,10 +7364,10 @@
         <v>1</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -7388,53 +7388,53 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" t="n">
         <v>1</v>
@@ -7443,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -7470,38 +7470,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -7513,19 +7513,19 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -7552,17 +7552,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7571,43 +7571,43 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
         <v>4</v>
       </c>
-      <c r="J87" t="n">
-        <v>3</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2</v>
-      </c>
-      <c r="O87" t="n">
-        <v>3</v>
-      </c>
-      <c r="P87" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>2</v>
-      </c>
-      <c r="R87" t="n">
-        <v>6</v>
-      </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,17 +7634,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7653,49 +7653,49 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P88" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7716,38 +7716,38 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -7759,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="n">
         <v>1</v>
@@ -7771,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7798,32 +7798,32 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -7835,13 +7835,13 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -7880,32 +7880,32 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -7914,22 +7914,22 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
@@ -7962,17 +7962,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -8002,22 +8002,22 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -8044,32 +8044,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -8078,28 +8078,28 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8145,13 +8145,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8160,22 +8160,22 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -8223,14 +8223,14 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -8245,19 +8245,19 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -8290,26 +8290,26 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0:49 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8318,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -8333,19 +8333,19 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
@@ -8372,17 +8372,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -8409,13 +8409,13 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P97" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -8454,32 +8454,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8536,32 +8536,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -8576,10 +8576,10 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -8618,12 +8618,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -8658,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8700,12 +8700,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Sat, February 7th at 6:00 PM EST</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -8743,19 +8743,19 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,26 +8782,26 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:13 - 1st Half</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -8819,19 +8819,19 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -8904,22 +8904,22 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -8946,17 +8946,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Jaylon Dean-Vines</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8965,13 +8965,13 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -8980,22 +8980,22 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -9028,67 +9028,641 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>Jordan Butler</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Brandon Walker</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ARK@MSST</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>12:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>12:13 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MISS@TEX</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>Blake Muschalek</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>AUB</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>ALA@AUB</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>7:56 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0:38 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
         <v>-2</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1</v>
-      </c>
-      <c r="P105" t="n">
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
         <v>5</v>
       </c>
-      <c r="Q105" t="n">
-        <v>0</v>
-      </c>
-      <c r="R105" t="n">
-        <v>3</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" t="n">
-        <v>0</v>
-      </c>
-      <c r="V105" t="n">
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9140,7 +9714,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -9149,53 +9723,53 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -9218,7 +9792,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -843,11 +843,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2729,11 +2729,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
         <v>5</v>
@@ -2757,19 +2757,19 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>8</v>
       </c>
       <c r="I40" t="n">
+        <v>13</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
         <v>6</v>
       </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2</v>
-      </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -3877,17 +3877,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>3</v>
@@ -4315,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4451,20 +4451,20 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -4600,68 +4600,68 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>14</v>
+      </c>
+      <c r="I51" t="n">
         <v>12</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
         <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2</v>
-      </c>
-      <c r="O51" t="n">
-        <v>5</v>
-      </c>
-      <c r="P51" t="n">
-        <v>23</v>
       </c>
       <c r="Q51" t="n">
         <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4682,68 +4682,68 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5</v>
+      </c>
+      <c r="P52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
         <v>10</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="n">
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
         <v>4</v>
       </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>8</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2</v>
-      </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>5</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -5830,68 +5830,68 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H66" t="n">
+        <v>12</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
         <v>11</v>
       </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2</v>
-      </c>
-      <c r="O66" t="n">
-        <v>5</v>
-      </c>
-      <c r="P66" t="n">
-        <v>20</v>
-      </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5934,46 +5934,46 @@
         <v>11</v>
       </c>
       <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
         <v>5</v>
       </c>
-      <c r="J67" t="n">
-        <v>7</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>2</v>
-      </c>
-      <c r="O67" t="n">
-        <v>4</v>
-      </c>
       <c r="P67" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6013,49 +6013,49 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P68" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
         <v>4</v>
-      </c>
-      <c r="R68" t="n">
-        <v>10</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
-      <c r="T68" t="n">
-        <v>4</v>
-      </c>
-      <c r="U68" t="n">
-        <v>2</v>
-      </c>
-      <c r="V68" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6076,41 +6076,41 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>10</v>
       </c>
       <c r="I69" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
         <v>6</v>
       </c>
-      <c r="J69" t="n">
-        <v>3</v>
-      </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
@@ -6119,25 +6119,25 @@
         <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -6158,68 +6158,68 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I70" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P70" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="Q70" t="n">
         <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
         <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -7060,68 +7060,68 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H81" t="n">
         <v>5</v>
       </c>
       <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
         <v>10</v>
       </c>
-      <c r="J81" t="n">
-        <v>3</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>28</v>
-      </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -7142,35 +7142,35 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -7179,31 +7179,31 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
         <v>3</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -7552,62 +7552,62 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
         <v>4</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,17 +7634,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7656,16 +7656,16 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -7674,16 +7674,16 @@
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
         <v>20</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -7716,35 +7716,35 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -7753,16 +7753,16 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>1</v>
@@ -7771,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7798,12 +7798,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7813,14 +7813,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -7832,22 +7832,22 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7880,53 +7880,53 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
         <v>6</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" t="n">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7984,40 +7984,40 @@
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P92" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
         <v>6</v>
       </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1</v>
-      </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8066,10 +8066,10 @@
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -8081,31 +8081,31 @@
         <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -8126,32 +8126,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8160,22 +8160,22 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -8208,53 +8208,53 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
         <v>6</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
         <v>1</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,38 +8290,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -8333,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>1</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -8782,22 +8782,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -8825,13 +8825,13 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -8946,17 +8946,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jaylon Dean-Vines</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8986,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -9028,17 +9028,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -9065,13 +9065,13 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
         <v>1</v>
       </c>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -9110,26 +9110,26 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -9150,22 +9150,22 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9192,22 +9192,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9232,10 +9232,10 @@
         <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -9274,12 +9274,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>6:34 - 1st Half</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -9299,10 +9299,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -9311,25 +9311,25 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
       </c>
       <c r="P108" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
         <v>4</v>
       </c>
-      <c r="Q108" t="n">
-        <v>0</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -9356,22 +9356,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>12:13 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -9381,13 +9381,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -9396,16 +9396,16 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
@@ -9438,17 +9438,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -9463,37 +9463,37 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
         <v>0</v>
@@ -9520,17 +9520,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -9554,115 +9554,33 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2026-02-07</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Undrafted</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Blake Muschalek</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>AUB</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>ALA@AUB</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>0:38 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>3</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0</v>
-      </c>
-      <c r="T112" t="n">
-        <v>1</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0</v>
-      </c>
-      <c r="V112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9714,7 +9632,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -9723,11 +9641,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -9736,27 +9654,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9792,7 +9710,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,17 +843,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -1238,29 +1238,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1272,28 +1272,28 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1320,29 +1320,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1354,28 +1354,28 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3902,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -4476,22 +4476,22 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4615,14 +4615,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>14</v>
       </c>
       <c r="I51" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J51" t="n">
         <v>2</v>
@@ -4637,25 +4637,25 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S51" t="n">
         <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5666,68 +5666,68 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5770,13 +5770,13 @@
         <v>13</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -5785,31 +5785,31 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P65" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
         <v>2</v>
       </c>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5830,38 +5830,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -5870,28 +5870,28 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6814,53 +6814,53 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H78" t="n">
         <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
         <v>2</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -6896,17 +6896,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6918,46 +6918,46 @@
         <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R79" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6978,17 +6978,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6997,14 +6997,14 @@
         </is>
       </c>
       <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
         <v>5</v>
       </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3</v>
-      </c>
       <c r="K80" t="n">
         <v>1</v>
       </c>
@@ -7012,34 +7012,34 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R80" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -7060,53 +7060,53 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
         <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
         <v>2</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -7841,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -7962,62 +7962,62 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8066,10 +8066,10 @@
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -8081,31 +8081,31 @@
         <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P93" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -8126,32 +8126,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8160,22 +8160,22 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
       </c>
       <c r="R94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -8208,53 +8208,53 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
         <v>6</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" t="n">
         <v>1</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,38 +8290,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -8333,13 +8333,13 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>1</v>
       </c>
       <c r="U96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -8372,32 +8372,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -8409,31 +8409,31 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -8491,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8536,12 +8536,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -8576,10 +8576,10 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -8618,17 +8618,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8637,13 +8637,13 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -8700,22 +8700,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -8740,22 +8740,22 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,22 +8782,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -8825,19 +8825,19 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8904,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -8946,12 +8946,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -8986,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -9028,26 +9028,26 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -9068,10 +9068,10 @@
         <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -9110,26 +9110,26 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -9150,22 +9150,22 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P106" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9192,22 +9192,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9232,10 +9232,10 @@
         <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>6:34 - 1st Half</t>
+          <t>3:36 - 1st Half</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -9299,10 +9299,10 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -9317,13 +9317,13 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -9581,6 +9581,88 @@
         <v>0</v>
       </c>
       <c r="V111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>UGA@LSU</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>3:36 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9632,7 +9714,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -843,11 +843,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -1253,11 +1253,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
@@ -1287,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3780,56 +3780,56 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,56 +3862,56 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q51" t="n">
         <v>6</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q78" t="n">
         <v>2</v>
@@ -7552,62 +7552,62 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
         <v>4</v>
       </c>
       <c r="S87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -7634,17 +7634,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7656,16 +7656,16 @@
         <v>3</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -7674,16 +7674,16 @@
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88" t="n">
         <v>20</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -7716,62 +7716,62 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="n">
         <v>4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" t="n">
-        <v>2</v>
-      </c>
-      <c r="P89" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" t="n">
-        <v>1</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -8387,20 +8387,20 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8430,10 +8430,10 @@
         <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -8454,32 +8454,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -8491,31 +8491,31 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -8573,13 +8573,13 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P99" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -8618,12 +8618,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -8658,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8719,13 +8719,13 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -8782,22 +8782,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -8822,22 +8822,22 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P102" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3:36 - 1st Half</t>
+          <t>0:25 - 1st Half</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -9714,7 +9714,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -664,41 +664,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
@@ -707,25 +707,25 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -746,68 +746,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
         <v>6</v>
       </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1156,68 +1156,68 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1238,17 +1238,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,49 +1257,49 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
         <v>7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>17</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jacob Crews</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1339,49 +1339,49 @@
         </is>
       </c>
       <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
         <v>8</v>
       </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1402,32 +1402,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1442,28 +1442,28 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1773,13 +1773,13 @@
         <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S16" t="n">
         <v>2</v>
@@ -1788,10 +1788,10 @@
         <v>4</v>
       </c>
       <c r="U16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1827,11 +1827,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
         <v>15</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2237,14 +2237,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -2265,25 +2265,25 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2344,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2893,53 +2893,53 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
         <v>6</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>4</v>
-      </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3385,20 +3385,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3407,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
         <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3428,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3549,53 +3549,53 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P38" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3631,53 +3631,53 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4533,26 +4533,26 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
@@ -4561,13 +4561,13 @@
         <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4576,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -4615,18 +4615,18 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
         <v>8</v>
       </c>
-      <c r="I51" t="n">
-        <v>9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>6</v>
-      </c>
       <c r="K51" t="n">
         <v>1</v>
       </c>
@@ -4637,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -4658,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -4968,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q55" t="n">
         <v>4</v>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5830,32 +5830,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -5864,16 +5864,16 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P66" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q66" t="n">
         <v>2</v>
@@ -5882,10 +5882,10 @@
         <v>3</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,50 +5912,50 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>6</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q67" t="n">
         <v>2</v>
@@ -5964,10 +5964,10 @@
         <v>3</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -6201,7 +6201,7 @@
         <v>3</v>
       </c>
       <c r="P70" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q70" t="n">
         <v>2</v>
@@ -6829,17 +6829,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -6857,19 +6857,19 @@
         <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -7142,68 +7142,68 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q82" t="n">
         <v>5</v>
       </c>
       <c r="R82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -7224,44 +7224,44 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I83" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
         <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O83" t="n">
         <v>4</v>
@@ -7270,22 +7270,22 @@
         <v>32</v>
       </c>
       <c r="Q83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U83" t="n">
         <v>6</v>
       </c>
       <c r="V83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -7306,68 +7306,68 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -7388,29 +7388,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J85" t="n">
         <v>7</v>
@@ -7419,37 +7419,37 @@
         <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P85" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R85" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U85" t="n">
         <v>6</v>
       </c>
       <c r="V85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -7798,68 +7798,68 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>13</v>
       </c>
       <c r="I90" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R90" t="n">
         <v>8</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>2</v>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -7880,68 +7880,68 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
         <v>2</v>
       </c>
       <c r="U91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -8169,7 +8169,7 @@
         <v>2</v>
       </c>
       <c r="P94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q94" t="n">
         <v>3</v>
@@ -8372,22 +8372,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -8397,31 +8397,31 @@
         <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P97" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q97" t="n">
         <v>2</v>
       </c>
       <c r="R97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8476,40 +8476,40 @@
         <v>9</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P98" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
@@ -8536,22 +8536,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>ALA@AUB</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -8561,31 +8561,31 @@
         <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P99" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S99" t="n">
         <v>1</v>
@@ -8594,10 +8594,10 @@
         <v>3</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -8618,68 +8618,68 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
+        <v>9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3</v>
+      </c>
+      <c r="P100" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
         <v>8</v>
       </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>3</v>
-      </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>3</v>
-      </c>
-      <c r="P100" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>3</v>
-      </c>
-      <c r="R100" t="n">
-        <v>6</v>
-      </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8722,40 +8722,40 @@
         <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N101" t="n">
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P101" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -8801,31 +8801,31 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
         <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P102" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q102" t="n">
         <v>2</v>
@@ -8834,10 +8834,10 @@
         <v>4</v>
       </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8886,13 +8886,13 @@
         <v>7</v>
       </c>
       <c r="I103" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -8901,31 +8901,31 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
         <v>3</v>
       </c>
       <c r="P103" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8946,17 +8946,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8968,13 +8968,13 @@
         <v>7</v>
       </c>
       <c r="I104" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -8983,31 +8983,31 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
         <v>2</v>
       </c>
       <c r="U104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -9028,17 +9028,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -9050,13 +9050,13 @@
         <v>7</v>
       </c>
       <c r="I105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -9065,31 +9065,31 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U105" t="n">
         <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -9110,68 +9110,68 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
+        <v>7</v>
+      </c>
+      <c r="I106" t="n">
         <v>6</v>
       </c>
-      <c r="I106" t="n">
-        <v>2</v>
-      </c>
       <c r="J106" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V106" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -9930,35 +9930,35 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -9970,16 +9970,16 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P116" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
@@ -9988,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="U116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V116" t="n">
         <v>2</v>
@@ -10012,68 +10012,68 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H117" t="n">
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>2</v>
       </c>
       <c r="P117" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -10094,17 +10094,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -10116,40 +10116,40 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U118" t="n">
         <v>0</v>
@@ -10176,38 +10176,38 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H119" t="n">
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
@@ -10216,28 +10216,28 @@
         <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -10258,68 +10258,68 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P120" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -10340,17 +10340,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -10362,16 +10362,16 @@
         <v>3</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K121" t="n">
         <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -10380,16 +10380,16 @@
         <v>1</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
         <v>20</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
@@ -10422,35 +10422,35 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -10459,31 +10459,31 @@
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P122" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U122" t="n">
         <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -10504,35 +10504,35 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H123" t="n">
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -10547,25 +10547,25 @@
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -10586,68 +10586,68 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Dellquan Warren</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H124" t="n">
         <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
         <v>6</v>
       </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0</v>
-      </c>
-      <c r="P124" t="n">
-        <v>4</v>
-      </c>
       <c r="Q124" t="n">
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -10832,22 +10832,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>CJ Ingram</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -10857,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -10869,19 +10869,19 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
@@ -10914,17 +10914,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -10936,40 +10936,40 @@
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P128" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -10996,17 +10996,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -11018,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -11033,19 +11033,19 @@
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
@@ -11078,12 +11078,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -11100,34 +11100,34 @@
         <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
         <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>1</v>
       </c>
       <c r="U130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -11160,17 +11160,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -11182,10 +11182,10 @@
         <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -11197,31 +11197,31 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P131" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -11242,17 +11242,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -11279,13 +11279,13 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P132" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -11324,17 +11324,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -11346,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -11364,22 +11364,22 @@
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
@@ -11406,17 +11406,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -11428,7 +11428,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J134" t="n">
         <v>1</v>
@@ -11449,19 +11449,19 @@
         <v>1</v>
       </c>
       <c r="P134" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -11488,17 +11488,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -11507,13 +11507,13 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P135" t="n">
         <v>3</v>
@@ -11570,22 +11570,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Alex Kovatchev</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>OU@VAN</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -11652,22 +11652,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Jordan Butler</t>
+          <t>Alex Lloyd</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -11692,22 +11692,22 @@
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
@@ -11734,35 +11734,35 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>TENN@UK</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L138" t="n">
         <v>1</v>
@@ -11771,31 +11771,31 @@
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P138" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -11816,22 +11816,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MIZ@SC</t>
+          <t>FLA@TA&amp;M</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:11 - 2nd Half</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -11856,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -11898,22 +11898,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>TENN@UK</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -11938,10 +11938,10 @@
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
@@ -11980,17 +11980,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Brandon Walker</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ARK@MSST</t>
+          <t>OU@VAN</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -12017,13 +12017,13 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
@@ -12062,17 +12062,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jordan Butler</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>UGA@LSU</t>
+          <t>MIZ@SC</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -12081,43 +12081,43 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O142" t="n">
         <v>1</v>
       </c>
       <c r="P142" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -12144,17 +12144,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>MISS@TEX</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -12181,25 +12181,25 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12245,13 +12245,13 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12260,13 +12260,13 @@
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P144" t="n">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12323,20 +12323,20 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>11:38 - 2nd Half</t>
+          <t>6:33 - 2nd Half</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>0</v>
@@ -12345,31 +12345,31 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P145" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -12390,17 +12390,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ALA@AUB</t>
+          <t>ARK@MSST</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -12409,13 +12409,13 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -12427,25 +12427,25 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146" t="n">
         <v>1</v>
       </c>
       <c r="P146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U146" t="n">
         <v>0</v>
@@ -12472,53 +12472,53 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>UGA@LSU</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O147" t="n">
         <v>1</v>
       </c>
       <c r="P147" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R147" t="n">
         <v>6</v>
@@ -12554,26 +12554,26 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>FLA@TA&amp;M</t>
+          <t>MISS@TEX</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>8:21 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -12585,16 +12585,16 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P148" t="n">
         <v>8</v>
@@ -12603,18 +12603,346 @@
         <v>0</v>
       </c>
       <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>MIZ@SC</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Blake Muschalek</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ALA@AUB</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" t="n">
         <v>5</v>
       </c>
-      <c r="S148" t="n">
-        <v>0</v>
-      </c>
-      <c r="T148" t="n">
-        <v>0</v>
-      </c>
-      <c r="U148" t="n">
-        <v>0</v>
-      </c>
-      <c r="V148" t="n">
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>FLA@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3:11 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P151" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>6</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>FLA@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3:11 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>2</v>
+      </c>
+      <c r="P152" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12666,7 +12994,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12675,7 +13003,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -12688,11 +13016,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12705,7 +13033,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12718,7 +13046,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -12744,7 +13072,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-07.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>6:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>3:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H152" t="n">
